--- a/ValueSet-valueset-immunization-status.xlsx
+++ b/ValueSet-valueset-immunization-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-valueset-immunization-status.xlsx
+++ b/ValueSet-valueset-immunization-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-valueset-immunization-status.xlsx
+++ b/ValueSet-valueset-immunization-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
